--- a/data/Contact_Recreation/MangateiteiatMooreStreet_5f30d2d29f.xlsx
+++ b/data/Contact_Recreation/MangateiteiatMooreStreet_5f30d2d29f.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">

--- a/data/Contact_Recreation/MangateiteiatMooreStreet_5f30d2d29f.xlsx
+++ b/data/Contact_Recreation/MangateiteiatMooreStreet_5f30d2d29f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -49,109 +49,157 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>4880</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>96</t>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>328.0</t>
+  </si>
+  <si>
+    <t>393.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>4880.0</t>
+  </si>
+  <si>
+    <t>1106.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>857.0</t>
+  </si>
+  <si>
+    <t>637.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -516,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -591,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -617,13 +665,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -643,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -669,13 +717,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -695,13 +743,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -721,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -747,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -773,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -799,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -825,13 +873,13 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -851,13 +899,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -877,13 +925,13 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -903,13 +951,13 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -929,13 +977,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -955,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -981,13 +1029,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1007,13 +1055,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1033,13 +1081,13 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1059,13 +1107,13 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1085,13 +1133,13 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1111,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1137,13 +1185,13 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1163,13 +1211,13 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1189,13 +1237,13 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1215,13 +1263,13 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1241,13 +1289,13 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1267,13 +1315,13 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1293,13 +1341,13 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1319,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1345,13 +1393,13 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1371,13 +1419,13 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1397,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1423,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1449,13 +1497,13 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1475,13 +1523,13 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1501,13 +1549,13 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1527,13 +1575,13 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1553,13 +1601,13 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1579,13 +1627,13 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1605,13 +1653,13 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1631,13 +1679,13 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1657,13 +1705,13 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1683,15 +1731,639 @@
         <v>21</v>
       </c>
       <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45600.50416666667</v>
+      </c>
+      <c r="D46" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45607.35138888889</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45614.36180555556</v>
+      </c>
+      <c r="D48" t="s">
         <v>45</v>
       </c>
-      <c r="G45" t="s">
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45621.38888888889</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45628.39791666667</v>
+      </c>
+      <c r="D50" t="s">
         <v>46</v>
       </c>
-      <c r="H45">
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45636.38541666666</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45642.39305555556</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45649.26666666667</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45656.30208333334</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45663.35694444444</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45670.44375</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45677.37638888889</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45685.38888888889</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45699.37847222222</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45705.38055555556</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45712.41111111111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45719.40625</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45726.39375</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45733.39791666667</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45741.38819444444</v>
+      </c>
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45747.41388888889</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45754.44097222222</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45769.43680555555</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45775.44583333333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69">
         <v>600</v>
       </c>
     </row>
